--- a/medicine/Mort/Cimetière_russe_de_Sainte-Geneviève-des-Bois/Cimetière_russe_de_Sainte-Geneviève-des-Bois.xlsx
+++ b/medicine/Mort/Cimetière_russe_de_Sainte-Geneviève-des-Bois/Cimetière_russe_de_Sainte-Geneviève-des-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Liers de Sainte-Geneviève-des-Bois, couramment désigné comme le cimetière russe de Sainte-Geneviève-des-Bois, est un cimetière situé au 8 de la rue Léo-Lagrange à Sainte-Geneviève-des-Bois (Essonne), en Île-de-France. Il est connu pour y accueillir un grand nombre de personnalités russes et françaises d'origine russe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Liers de Sainte-Geneviève-des-Bois, dit cimetière « russe », est un cimetière communal. Le 8 février 1879, le conseil municipal décide de créer un nouveau cimetière. Depuis cette date, ce cimetière est resté communal ; on y trouve toutes les confessions, dont plusieurs tombes juives et musulmanes.
-Dorothy Paget et Elena Kirilovna Orlova (née Struve 1877-1957) créent une maison de retraite pour Russes blancs, la Maison russe, dans les bâtiments du château de la Cossonnerie. La princesse Vera Mechtcherskaïa (1876-1949), sœur aînée d'Elena Orlova, les rejoint en tant que directrice de la Maison. En 1927, la première pensionnaire de la Maison russe est inhumée dans ce qu’on appellera désormais le « cimetière russe ». Il s'agit d'une partie du cimetière communal de Liers et en dépend administrativement[1]. Véritable site de mémoire, environ 15 000 Russes ou Français d’origine russe venus en France à la suite de la révolution bolchevique de 1917 y sont inhumés dans quelque 5 200 tombes. Suivront les dépouilles des Russes réfugiés en France au milieu des années 1940 et dans les années 1970-1980[2].
-Le carré russe fait l'objet d'une inscription au titre des monuments historiques par arrêté du 31 janvier 2001[3].
+Dorothy Paget et Elena Kirilovna Orlova (née Struve 1877-1957) créent une maison de retraite pour Russes blancs, la Maison russe, dans les bâtiments du château de la Cossonnerie. La princesse Vera Mechtcherskaïa (1876-1949), sœur aînée d'Elena Orlova, les rejoint en tant que directrice de la Maison. En 1927, la première pensionnaire de la Maison russe est inhumée dans ce qu’on appellera désormais le « cimetière russe ». Il s'agit d'une partie du cimetière communal de Liers et en dépend administrativement. Véritable site de mémoire, environ 15 000 Russes ou Français d’origine russe venus en France à la suite de la révolution bolchevique de 1917 y sont inhumés dans quelque 5 200 tombes. Suivront les dépouilles des Russes réfugiés en France au milieu des années 1940 et dans les années 1970-1980.
+Le carré russe fait l'objet d'une inscription au titre des monuments historiques par arrêté du 31 janvier 2001.
 L'aménagement est « à la russe » (petits bancs, cadre pastoral, avec des abiétacées, des pins, et de grands bouleaux).
-Les patriarches de Russie Alexis II[N 1] et Cyrille, ainsi que le président de la fédération de Russie, Vladimir Poutine, s’y sont rendus et ont fleuri plusieurs tombes. La fédération de Russie assurait depuis 2005 le paiement à la mairie de Sainte-Geneviève-des-Bois (dotation votée en deux fois par la Russie pour un total de plus d'un million d'euros [2],[5]) des concessions échues dont l'ayant-droit reste introuvable, afin d'éviter le déplacement des reliques dans un ossuaire et la revente de la concession comme le font toutes les municipalités. Mais depuis la guerre menée à l'Ukraine par la Russie depuis 2022, la mairie de Sainte-Geneviève-des-Bois refuse officiellement ces flux financiers[2].
-L'église orthodoxe Notre-Dame-de-l'Assomption (église de la la Dormition de la Mère de Dieu), inaugurée en 1939, est située sur un territoire privé totalement indépendant du cimetière communal. Elle est surmontée d'un toit vert et d’un bulbe bleu. Avec son campanile, ils sont de style novgorodien des XVe et XVIe siècles. Ce territoire fut acquis par l'archevêché des églises orthodoxes de tradition russe en Europe occidentale au sein du patriarcat œcuménique. Il dépend depuis 2019 de la métropole de Doubna (archevêché des églises orthodoxes russes en Europe occidentale), appartenant à la juridiction du patriarcat orthodoxe de Moscou. L'église fait l'objet d'une inscription au titre des monuments historiques par arrêté du 1er juillet 1974[6].
+Les patriarches de Russie Alexis II[N 1] et Cyrille, ainsi que le président de la fédération de Russie, Vladimir Poutine, s’y sont rendus et ont fleuri plusieurs tombes. La fédération de Russie assurait depuis 2005 le paiement à la mairie de Sainte-Geneviève-des-Bois (dotation votée en deux fois par la Russie pour un total de plus d'un million d'euros ,) des concessions échues dont l'ayant-droit reste introuvable, afin d'éviter le déplacement des reliques dans un ossuaire et la revente de la concession comme le font toutes les municipalités. Mais depuis la guerre menée à l'Ukraine par la Russie depuis 2022, la mairie de Sainte-Geneviève-des-Bois refuse officiellement ces flux financiers.
+L'église orthodoxe Notre-Dame-de-l'Assomption (église de la la Dormition de la Mère de Dieu), inaugurée en 1939, est située sur un territoire privé totalement indépendant du cimetière communal. Elle est surmontée d'un toit vert et d’un bulbe bleu. Avec son campanile, ils sont de style novgorodien des XVe et XVIe siècles. Ce territoire fut acquis par l'archevêché des églises orthodoxes de tradition russe en Europe occidentale au sein du patriarcat œcuménique. Il dépend depuis 2019 de la métropole de Doubna (archevêché des églises orthodoxes russes en Europe occidentale), appartenant à la juridiction du patriarcat orthodoxe de Moscou. L'église fait l'objet d'une inscription au titre des monuments historiques par arrêté du 1er juillet 1974.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,26 +561,131 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Environ 15 000 Russes ou Français d’origine russe y sont inhumés dans 5 220 tombes.
-Danseurs et chorégraphes
-Lioubov Iegorova (princesse Nikita Troubetzkoy) (1880-1972)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 15 000 Russes ou Français d’origine russe y sont inhumés dans 5 220 tombes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Danseurs et chorégraphes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lioubov Iegorova (princesse Nikita Troubetzkoy) (1880-1972)
 Serge Lifar (1905-1986)
 Rudolf Noureev (1938-1993) : sa tombe est recouverte d’une mosaïque créée par le décorateur de théâtre Ezio Frigerio et réalisée par le mosaïste Akonema en 1996, qui représente un tapis kilim que Noureev affectionnait particulièrement
 Nina Alexandrovna Tikhonova (1910-1995)
 Alexandre Volinine (1882-1955)
-Nina Vyroubova (1921-2007)
-Cinéastes et acteurs
-Gregori Chmara (1878-1970), acteur et metteur en scène
+Nina Vyroubova (1921-2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéastes et acteurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gregori Chmara (1878-1970), acteur et metteur en scène
 Lila Kedrova (1909-2000), actrice
 Ivan Mosjoukine (1887-1939), surnommé le Rudolph Valentino russe
 Andreï Tarkovski (1932-1986), réalisateur
 Patrick Topaloff (1944-2010), animateur, acteur, chanteur
 Hélène Vallier (1932-1988), née Hélène de Poliakoff, sœur de l’actrice Marina Vlady
-Odile Versois (1930-1980), née Tatiana de Poliakoff, sœur de la précédente.
-Peintres et sculpteurs
-le peintre Constantin Korovine (1861-1939)
+Odile Versois (1930-1980), née Tatiana de Poliakoff, sœur de la précédente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Peintres et sculpteurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>le peintre Constantin Korovine (1861-1939)
 le peintre abstrait André Lanskoy (1902-1976)
 le sculpteur Antoine Pevsner (1884-1962)
 le peintre abstrait Serge Poliakoff (1906-1969)
@@ -576,9 +695,43 @@
 Konstantin Somov (1869-1939)
 Théodore Strawinsky (1907-1989), peintre, fils d’Igor Stravinsky
 Léonide Ouspensky (1902-1987), iconographe
-Galina Petroff-Lapierre (1922-2020), iconographe
-Écrivains
-Andreï Amalrik (1938-1980), écrivain et dissident soviétique
+Galina Petroff-Lapierre (1922-2020), iconographe</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Écrivains</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Andreï Amalrik (1938-1980), écrivain et dissident soviétique
 Sergueï Boulgakov (1871-1944), philosophe et théologien
 Le prix Nobel de littérature Ivan Bounine (1870-1953)
 Ivan Chmeliov (1873-1950)
@@ -588,11 +741,79 @@
 Alexeï Remizov (1877-1957)
 Irène Yourcha (née de Haes) (1898-1984)
 Alexandre Galitch (1918-1977) dramaturge, poète et auteur-compositeur-interprète
-Tatiana Ossorguine (née Bakounine) (1904-1995) historienne et bibliothécaire, femme de Mikhaïl Ossorguine[7].
-Architecte
-Serge Maloletenkov (1922-1974) ; (biographie [1]), Hôtel Concorde La Fayette, Paris
-Membres de la noblesse
-la princesse Irina Alexandrovna de Russie (1895-1970) et son époux le prince Félix Ioussoupov (1887-1967)
+Tatiana Ossorguine (née Bakounine) (1904-1995) historienne et bibliothécaire, femme de Mikhaïl Ossorguine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Architecte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Serge Maloletenkov (1922-1974) ; (biographie ), Hôtel Concorde La Fayette, Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Membres de la noblesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>la princesse Irina Alexandrovna de Russie (1895-1970) et son époux le prince Félix Ioussoupov (1887-1967)
 la princesse Véra Obolensky (1911-1944), martyr de la Résistance, nom de code « Vicky » (deux plaques la commémorent dans ce cimetière)
 le grand-duc Gabriel de Russie (1887-1955), arrière-petit-fils de Nicolas Ier
 le grand-duc Andreï Vladimirovitch (1879-1956) avec son épouse la princesse Marie Félixovna Romanovsky-Krassinsky (1872-1971), plus connue sous son nom de ballerine, Mathilde Kschessinska, et leur fils Vladimir
@@ -600,16 +821,84 @@
 le prince Wladimir Bariatinsky (1874-1941) et son épouse la princesse Olga Bariatinsky, née Berestovskaïa (1881-1974)
 le prince Gleb Grégoriévitch Gagarine (1887-1974), colonel au régiment des Cavaliers de Garde de l'impératrice Maria Fédorovna
 Pavel Alexeïevitch Ignatiev (1878-1930), fils du comte Alexeï Pavlovitch Ignatiev
-Les princes Constantin Andronikof (1916-1997) et Emmanuel Andronikof (1947-1995)[8]
-Hommes politiques
-Vladimir Bourtzeff (1862-1942), militant révolutionnaire mais anti-bolchévique, chercheur, éditeur et rédacteur en chef de plusieurs périodiques en langue russe
+Les princes Constantin Andronikof (1916-1997) et Emmanuel Andronikof (1947-1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hommes politiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Vladimir Bourtzeff (1862-1942), militant révolutionnaire mais anti-bolchévique, chercheur, éditeur et rédacteur en chef de plusieurs périodiques en langue russe
 Alexis de Giers (1871-1958), gouverneur de Kiev, de Minsk puis de Nijni Novgorod
 Vladimir Nikolaïevitch Kokovtsov (1853-1943, enterré dans la crypte de l'église de la Dormition)
 Vassili Vassilievitch Kotchoubeï, émigré russe après la révolution bolchevique, franc-maçon (1883-1960), député de la quatrième Douma, maréchal de la noblesse de la province de Periatinski
 L’ancien Premier ministre et prince Gueorgui Lvov (1861-1925), orthographié parfois Lvoff
-Pierre Bernhardovitch Struve (1870-1944). Personnalité intellectuelle et politique active en Russie et dans l'émigration russe. Il a été en particulier impliqué dans les négociations entre la France et le mouvement de l'Armée blanche du Nord de la Russie lors de la révolution bolchévique[9].
-Officiers
-Nikolaï Nikolaïevitch Kolomeïtsev (1867-1944), amiral de la Marine impériale russe, explorateur russe de l'Arctique, membre et chef de l'Administration hydrographique lors de l'expédition en mer Blanche (1900-1903).
+Pierre Bernhardovitch Struve (1870-1944). Personnalité intellectuelle et politique active en Russie et dans l'émigration russe. Il a été en particulier impliqué dans les négociations entre la France et le mouvement de l'Armée blanche du Nord de la Russie lors de la révolution bolchévique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Officiers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nikolaï Nikolaïevitch Kolomeïtsev (1867-1944), amiral de la Marine impériale russe, explorateur russe de l'Arctique, membre et chef de l'Administration hydrographique lors de l'expédition en mer Blanche (1900-1903).
 le colonel Nicolas Ivanovitch Alabovsky (1883-1974), bras droit du général Anton Dénikine puis Alexandre Koutiepov, puis commandant du régiment Markovsky, non enterré au cénotaphe de Gallipoli pour être enterré avec sa femme née « grande duchesse » Kramareff.
 Valerian Nikolaïevitch Bibikov (1891-1950).
 Abram Mikhaïlovitch Dragomirov (1868-1955), général durant la Première Guerre mondiale, membre du Mouvement blanc, ancien président de l’ordre de Saint-Nicolas le Thaumaturge.
@@ -629,9 +918,43 @@
 la sépulture du régiment du général Mikhaïl Alexeïev,
 le carré des cosaques du Don,
 celui des cadets russes,
-le monument de la comtesse du Luart, marraine du premier régiment étranger de cavalerie basé au camp de Carpiagne.
-Autres personnalités
-le violoniste Yoska Nemeth (1921-1965)
+le monument de la comtesse du Luart, marraine du premier régiment étranger de cavalerie basé au camp de Carpiagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_russe_de_Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_russe_de_Sainte-Genevi%C3%A8ve-des-Bois</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>le violoniste Yoska Nemeth (1921-1965)
 Alexandre Petrovitch Fabergé (1877–1952), troisième fils du célèbre joaillier du tsar, Pierre-Karl Fabergé
 Sofia Fiodorovna Koltchak, née Omirova (1876-1956) épouse de l’amiral Koltchak, chef des armées blanches en 1917 et régent de Russie.
 Rostislav Alexandrovitch Koltchak (1910-1965), leur fils
